--- a/biology/Botanique/Altesse_(cépage)/Altesse_(cépage).xlsx
+++ b/biology/Botanique/Altesse_(cépage)/Altesse_(cépage).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Altesse_(c%C3%A9page)</t>
+          <t>Altesse_(cépage)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'altesse B est un cépage français blanc, principalement présent dans le vignoble de Savoie.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Altesse_(c%C3%A9page)</t>
+          <t>Altesse_(cépage)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,14 +526,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Historique
-Certaines légendes font provenir l'altesse de Chypre. Un duc de Savoie aurait rapporté ce cépage à vin blanc en rentrant de l'empire romain d'Orient où il était allé guerroyer pour aider son cousin l'empereur Paléologue[1],[note 1]
-Louis Levadoux, ampélographe, a inclus l'altesse dans la famille des Sérines[2]. Elle serait donc originaire du sud-est de la France et aurait pour prestigieuse famille la syrah, la mondeuse, le viognier, la marsanne ou la roussanne.
-Aire géographique
-En France, ce cépage est surtout présent en Savoie, un peu dans l'Ain et l'Isère. En Savoie, il est appelé Roussette. Il est à nouveau planté, passant de 129 ha en 1979 à 190 ha en 1994, après avoir connu un déclin dans les années 1960-70[3].
-Elle est aussi présente en Suisse romande, confirmant probablement son origine savoyarde.
-Synonymie
-L'altesse est aussi connu sous les noms d'arbane, fusette d'Ambérieu, fusette de Montagnieu, roussette, roussette de Montagnieu, roussette haute.
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Certaines légendes font provenir l'altesse de Chypre. Un duc de Savoie aurait rapporté ce cépage à vin blanc en rentrant de l'empire romain d'Orient où il était allé guerroyer pour aider son cousin l'empereur Paléologue,[note 1]
+Louis Levadoux, ampélographe, a inclus l'altesse dans la famille des Sérines. Elle serait donc originaire du sud-est de la France et aurait pour prestigieuse famille la syrah, la mondeuse, le viognier, la marsanne ou la roussanne.
 </t>
         </is>
       </c>
@@ -532,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Altesse_(c%C3%A9page)</t>
+          <t>Altesse_(cépage)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,10 +559,87 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Origine</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Aire géographique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France, ce cépage est surtout présent en Savoie, un peu dans l'Ain et l'Isère. En Savoie, il est appelé Roussette. Il est à nouveau planté, passant de 129 ha en 1979 à 190 ha en 1994, après avoir connu un déclin dans les années 1960-70.
+Elle est aussi présente en Suisse romande, confirmant probablement son origine savoyarde.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Altesse_(cépage)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Altesse_(c%C3%A9page)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Origine</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'altesse est aussi connu sous les noms d'arbane, fusette d'Ambérieu, fusette de Montagnieu, roussette, roussette de Montagnieu, roussette haute.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Altesse_(cépage)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Altesse_(c%C3%A9page)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Caractères ampélographiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Bourgeonnement cotonneux.
 Jeunes feuilles très bronzées.
@@ -559,67 +648,144 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Altesse_(c%C3%A9page)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Altesse_(c%C3%A9page)</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Altesse_(cépage)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Altesse_(c%C3%A9page)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Aptitudes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Culturales
-Ce cépage peut se conduire selon le terroir en taille courte (gobelet, cordon de Royat) ou en taille longue (Guyot). Ses terrains de prédilection sont les éboulis argilo-calcaires ou caillouteux et en bonne exposition (critère particulièrement important pour un cépage de climat montagneux).
-Sensibilité aux maladies
-C'est un cépage délicat très sensible au mildiou, à l'excoriose, aux acariens et à l'oïdium. Il craint également la pourriture grise à l'approche des vendanges. 
-Technologiques
-C'est un cépage au potentiel intéressant. Il donne des vins généreux, corsés, riches en arôme, fins et aptes au vieillissement.
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Culturales</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce cépage peut se conduire selon le terroir en taille courte (gobelet, cordon de Royat) ou en taille longue (Guyot). Ses terrains de prédilection sont les éboulis argilo-calcaires ou caillouteux et en bonne exposition (critère particulièrement important pour un cépage de climat montagneux).
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Altesse_(c%C3%A9page)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Altesse_(c%C3%A9page)</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Altesse_(cépage)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Altesse_(c%C3%A9page)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Aptitudes</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Sensibilité aux maladies</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un cépage délicat très sensible au mildiou, à l'excoriose, aux acariens et à l'oïdium. Il craint également la pourriture grise à l'approche des vendanges. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Altesse_(cépage)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Altesse_(c%C3%A9page)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Aptitudes</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Technologiques</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un cépage au potentiel intéressant. Il donne des vins généreux, corsés, riches en arôme, fins et aptes au vieillissement.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Altesse_(cépage)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Altesse_(c%C3%A9page)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Diversité génétique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Les prospections dans les vieilles vignes de Savoie ont conduit à la création d'une collection de clones. Parmi eux, trois ont été homologués.
 </t>
